--- a/1-INTAKE/solar_simulation_results.xlsx
+++ b/1-INTAKE/solar_simulation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,124 +459,150 @@
           <t>Concentration Factor</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Intensity * Concentration factor (funnel)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-22.30227530712135</v>
+        <v>-23.01163672786925</v>
       </c>
       <c r="C2" t="n">
-        <v>37.42772469287866</v>
+        <v>36.71836327213076</v>
       </c>
       <c r="D2" t="n">
-        <v>827.1615990557204</v>
+        <v>813.7175177100427</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>81371.75177100427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-22.1742352851665</v>
+        <v>-22.93054360830766</v>
       </c>
       <c r="C3" t="n">
-        <v>37.5557647148335</v>
+        <v>36.79945639169235</v>
       </c>
       <c r="D3" t="n">
-        <v>829.5748128802018</v>
+        <v>815.2607778315095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>81526.07778315095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-22.03962455873745</v>
+        <v>-22.84265567379326</v>
       </c>
       <c r="C4" t="n">
-        <v>37.69037544126255</v>
+        <v>36.88734432620674</v>
       </c>
       <c r="D4" t="n">
-        <v>832.107399552626</v>
+        <v>816.9315039315795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81693.15039315795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-21.8984830158976</v>
+        <v>-22.74799896741784</v>
       </c>
       <c r="C5" t="n">
-        <v>37.8315169841024</v>
+        <v>36.98200103258216</v>
       </c>
       <c r="D5" t="n">
-        <v>834.7579251329577</v>
+        <v>818.7287524974186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>81872.87524974186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-21.75085247993216</v>
+        <v>-22.64660153800635</v>
       </c>
       <c r="C6" t="n">
-        <v>37.97914752006785</v>
+        <v>37.08339846199365</v>
       </c>
       <c r="D6" t="n">
-        <v>837.5248883498863</v>
+        <v>820.6515082130121</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>82065.15082130121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-21.59677669695508</v>
+        <v>-22.53849343180545</v>
       </c>
       <c r="C7" t="n">
-        <v>38.13322330304492</v>
+        <v>37.19150656819455</v>
       </c>
       <c r="D7" t="n">
-        <v>840.4067214192698</v>
+        <v>822.6986844693598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>82269.86844693599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-21.43630132294608</v>
+        <v>-22.42370668358019</v>
       </c>
       <c r="C8" t="n">
-        <v>38.29369867705392</v>
+        <v>37.30629331641981</v>
       </c>
       <c r="D8" t="n">
-        <v>843.4017909101094</v>
+        <v>824.8691239161473</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>82486.91239161472</v>
       </c>
     </row>
   </sheetData>
